--- a/documents/template/table.xlsx
+++ b/documents/template/table.xlsx
@@ -24,7 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>all_tags_merge</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,18 +348,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
     <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>

--- a/documents/template/table.xlsx
+++ b/documents/template/table.xlsx
@@ -352,6 +352,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="14" width="50.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
